--- a/biology/Zoologie/Eptesicus_nasutus/Eptesicus_nasutus.xlsx
+++ b/biology/Zoologie/Eptesicus_nasutus/Eptesicus_nasutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eptesicus nasutus est une espèce de chauve-souris de la famille des Vespertilionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se rencontre en Arabie saoudite, au Sultanat d'Oman, au Yémen, en Irak, en Iran, en Afghanistan et au Pakistan.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (17 mars 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (17 mars 2011) :
 Eptesicus nasutus batinensis Harrison, 1968
 Eptesicus nasutus matschiei Thomas, 1905
 Eptesicus nasutus nasutus Dobson, 1877
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dobson, 1877 : Notes on a collection of Chiroptera from India and Burma with descriptions of new species. Journal of the Asiatic Society of Bengal, vol. 46, p. 210–313.</t>
         </is>
